--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AVERAGE_10_6_qoq_errors_latest_eval_20101_20181.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AVERAGE_10_6_qoq_errors_latest_eval_20101_20181.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -37,97 +37,49 @@
     <t>Q6</t>
   </si>
   <si>
-    <t>2010-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2010-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2010-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2010-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-04-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-07-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-10-01 00:00:00_diff</t>
   </si>
   <si>
-    <t>2017-01-01 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2017-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2017-07-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2017-10-01 00:00:00_diff</t>
@@ -491,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +477,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-1.041468899776576</v>
+        <v>-2.527487953207926</v>
       </c>
       <c r="C2">
-        <v>-2.480671994035883</v>
+        <v>-1.325793203304092</v>
       </c>
       <c r="D2">
-        <v>-1.278977244132049</v>
+        <v>-1.016503446912973</v>
       </c>
       <c r="E2">
-        <v>-0.9696874877409301</v>
+        <v>-2.171556292805672</v>
       </c>
       <c r="F2">
-        <v>-2.124740333633628</v>
+        <v>-0.6319224489160813</v>
       </c>
       <c r="G2">
-        <v>-0.5851064897440383</v>
+        <v>-0.901576568889715</v>
       </c>
       <c r="H2">
-        <v>-0.8547606097176721</v>
+        <v>-0.3500448649906018</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -551,25 +503,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-2.527487953207926</v>
+        <v>-0.8260246319213993</v>
       </c>
       <c r="C3">
-        <v>-1.325793203304092</v>
+        <v>-1.981077477814098</v>
       </c>
       <c r="D3">
-        <v>-1.016503446912973</v>
+        <v>-0.4414436339245075</v>
       </c>
       <c r="E3">
-        <v>-2.171556292805672</v>
+        <v>-0.7110977538981412</v>
       </c>
       <c r="F3">
-        <v>-0.6319224489160813</v>
+        <v>-0.159566049999028</v>
       </c>
       <c r="G3">
-        <v>-0.901576568889715</v>
+        <v>-0.3854928109118805</v>
       </c>
       <c r="H3">
-        <v>-0.3500448649906018</v>
+        <v>-0.2776770955153309</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -577,25 +529,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-1.091278253283397</v>
+        <v>-0.1405287498260583</v>
       </c>
       <c r="C4">
-        <v>-0.7819884968922787</v>
+        <v>-0.4101828697996921</v>
       </c>
       <c r="D4">
-        <v>-1.937041342784977</v>
+        <v>0.1413488340994211</v>
       </c>
       <c r="E4">
-        <v>-0.3974074988953868</v>
+        <v>-0.08457792681343129</v>
       </c>
       <c r="F4">
-        <v>-0.6670616188690206</v>
+        <v>0.0232377885831183</v>
       </c>
       <c r="G4">
-        <v>-0.1155299149699073</v>
+        <v>-0.0731618320811834</v>
       </c>
       <c r="H4">
-        <v>-0.3414566758827598</v>
+        <v>0.4302490533718251</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -603,25 +555,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.8260246319213993</v>
+        <v>0.7815531178611421</v>
       </c>
       <c r="C5">
-        <v>-1.981077477814098</v>
+        <v>0.5556263569482897</v>
       </c>
       <c r="D5">
-        <v>-0.4414436339245075</v>
+        <v>0.6634420723448393</v>
       </c>
       <c r="E5">
-        <v>-0.7110977538981412</v>
+        <v>0.5670424516805376</v>
       </c>
       <c r="F5">
-        <v>-0.159566049999028</v>
+        <v>1.070453337133546</v>
       </c>
       <c r="G5">
-        <v>-0.3854928109118805</v>
+        <v>1.328975279056995</v>
       </c>
       <c r="H5">
-        <v>-0.2776770955153309</v>
+        <v>-0.3950073059213186</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -629,25 +581,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-1.875726177221434</v>
+        <v>0.59085446968239</v>
       </c>
       <c r="C6">
-        <v>-0.3360923333318435</v>
+        <v>0.4944548490180882</v>
       </c>
       <c r="D6">
-        <v>-0.6057464533054773</v>
+        <v>0.9978657344710967</v>
       </c>
       <c r="E6">
-        <v>-0.05421474940636402</v>
+        <v>1.256387676394546</v>
       </c>
       <c r="F6">
-        <v>-0.2801415103192165</v>
+        <v>-0.467594908583768</v>
       </c>
       <c r="G6">
-        <v>-0.1723257949226669</v>
+        <v>0.1860443077789333</v>
       </c>
       <c r="H6">
-        <v>-0.2687254155869686</v>
+        <v>0.5495882426873645</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -655,25 +607,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.1405287498260583</v>
+        <v>0.9421746901075616</v>
       </c>
       <c r="C7">
-        <v>-0.4101828697996921</v>
+        <v>1.200696632031011</v>
       </c>
       <c r="D7">
-        <v>0.1413488340994211</v>
+        <v>-0.5232859529473031</v>
       </c>
       <c r="E7">
-        <v>-0.08457792681343129</v>
+        <v>0.1303532634153982</v>
       </c>
       <c r="F7">
-        <v>0.0232377885831183</v>
+        <v>0.4938971983238294</v>
       </c>
       <c r="G7">
-        <v>-0.0731618320811834</v>
+        <v>-0.4068786465558001</v>
       </c>
       <c r="H7">
-        <v>0.4302490533718251</v>
+        <v>0.6634969103978527</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -681,25 +633,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.2367009596406698</v>
+        <v>-0.8773451131212686</v>
       </c>
       <c r="C8">
-        <v>0.3148307442584434</v>
+        <v>-0.2237058967585673</v>
       </c>
       <c r="D8">
-        <v>0.08890398334559094</v>
+        <v>0.1398380381498639</v>
       </c>
       <c r="E8">
-        <v>0.1967196987421405</v>
+        <v>-0.7609378067297656</v>
       </c>
       <c r="F8">
-        <v>0.1003200780778388</v>
+        <v>0.3094377502238873</v>
       </c>
       <c r="G8">
-        <v>0.6037309635308473</v>
+        <v>-0.2676221637925746</v>
       </c>
       <c r="H8">
-        <v>0.8622529054542964</v>
+        <v>-0.4732281478855908</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -707,25 +659,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7815531178611421</v>
+        <v>0.04951982135029001</v>
       </c>
       <c r="C9">
-        <v>0.5556263569482897</v>
+        <v>-0.8512560235293395</v>
       </c>
       <c r="D9">
-        <v>0.6634420723448393</v>
+        <v>0.2191195334243133</v>
       </c>
       <c r="E9">
-        <v>0.5670424516805376</v>
+        <v>-0.3579403805921485</v>
       </c>
       <c r="F9">
-        <v>1.070453337133546</v>
+        <v>-0.5635463646851647</v>
       </c>
       <c r="G9">
-        <v>1.328975279056995</v>
+        <v>0.4155986170359325</v>
       </c>
       <c r="H9">
-        <v>-0.3950073059213186</v>
+        <v>-0.3207477263014294</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -733,25 +685,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5133158442068292</v>
+        <v>0.2874422675287736</v>
       </c>
       <c r="C10">
-        <v>0.6211315596033788</v>
+        <v>-0.2896176464876882</v>
       </c>
       <c r="D10">
-        <v>0.5247319389390771</v>
+        <v>-0.4952236305807045</v>
       </c>
       <c r="E10">
-        <v>1.028142824392086</v>
+        <v>0.4839213511403928</v>
       </c>
       <c r="F10">
-        <v>1.286664766315535</v>
+        <v>-0.2524249921969692</v>
       </c>
       <c r="G10">
-        <v>-0.4373178186627791</v>
+        <v>-0.2703948068511625</v>
       </c>
       <c r="H10">
-        <v>0.2163213976999222</v>
+        <v>-0.2469899413108257</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -759,25 +711,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.59085446968239</v>
+        <v>-0.5938852086106097</v>
       </c>
       <c r="C11">
-        <v>0.4944548490180882</v>
+        <v>0.3852597731104875</v>
       </c>
       <c r="D11">
-        <v>0.9978657344710967</v>
+        <v>-0.3510865702268745</v>
       </c>
       <c r="E11">
-        <v>1.256387676394546</v>
+        <v>-0.3690563848810678</v>
       </c>
       <c r="F11">
-        <v>-0.467594908583768</v>
+        <v>-0.345651519340731</v>
       </c>
       <c r="G11">
-        <v>0.1860443077789333</v>
+        <v>-0.7108259551074718</v>
       </c>
       <c r="H11">
-        <v>0.5495882426873645</v>
+        <v>-0.0550064379365196</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -785,25 +737,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4818396649441121</v>
+        <v>-0.2740769919852016</v>
       </c>
       <c r="C12">
-        <v>0.9852505503971206</v>
+        <v>-0.292046806639395</v>
       </c>
       <c r="D12">
-        <v>1.24377249232057</v>
+        <v>-0.2686419410990581</v>
       </c>
       <c r="E12">
-        <v>-0.4802100926577441</v>
+        <v>-0.6338163768657989</v>
       </c>
       <c r="F12">
-        <v>0.1734291237049572</v>
+        <v>0.02200314030515318</v>
       </c>
       <c r="G12">
-        <v>0.5369730586133884</v>
+        <v>-0.1088677406362705</v>
       </c>
       <c r="H12">
-        <v>-0.3638027862662411</v>
+        <v>-0.2183855395603924</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -811,25 +763,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9421746901075616</v>
+        <v>-0.09712588908289738</v>
       </c>
       <c r="C13">
-        <v>1.200696632031011</v>
+        <v>-0.4623003248496382</v>
       </c>
       <c r="D13">
-        <v>-0.5232859529473031</v>
+        <v>0.193519192321314</v>
       </c>
       <c r="E13">
-        <v>0.1303532634153982</v>
+        <v>0.0626483113798903</v>
       </c>
       <c r="F13">
-        <v>0.4938971983238294</v>
+        <v>-0.04686948754423159</v>
       </c>
       <c r="G13">
-        <v>-0.4068786465558001</v>
+        <v>-0.8766472746117848</v>
       </c>
       <c r="H13">
-        <v>0.6634969103978527</v>
+        <v>-0.2961214854431372</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -837,25 +789,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.9212738827079614</v>
+        <v>0.1560540901775642</v>
       </c>
       <c r="C14">
-        <v>-0.8027087022703524</v>
+        <v>0.02518320923614054</v>
       </c>
       <c r="D14">
-        <v>-0.1490694859076511</v>
+        <v>-0.08433458968798135</v>
       </c>
       <c r="E14">
-        <v>0.2144744490007801</v>
+        <v>-0.9141123767555346</v>
       </c>
       <c r="F14">
-        <v>-0.6863013958788494</v>
+        <v>-0.3335865875868869</v>
       </c>
       <c r="G14">
-        <v>0.3840741610748034</v>
+        <v>-0.4169726890166669</v>
       </c>
       <c r="H14">
-        <v>-0.1929857529416584</v>
+        <v>-0.6348825665564255</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -863,25 +815,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.8773451131212686</v>
+        <v>-0.106237102096024</v>
       </c>
       <c r="C15">
-        <v>-0.2237058967585673</v>
+        <v>-0.9360148891635773</v>
       </c>
       <c r="D15">
-        <v>0.1398380381498639</v>
+        <v>-0.3554890999949296</v>
       </c>
       <c r="E15">
-        <v>-0.7609378067297656</v>
+        <v>-0.4388752014247095</v>
       </c>
       <c r="F15">
-        <v>0.3094377502238873</v>
+        <v>-0.6567850789644682</v>
       </c>
       <c r="G15">
-        <v>-0.2676221637925746</v>
+        <v>0.9069927246717022</v>
       </c>
       <c r="H15">
-        <v>-0.4732281478855908</v>
+        <v>-0.4289909814103615</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -889,25 +841,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.1928365911230413</v>
+        <v>-0.2673832081489602</v>
       </c>
       <c r="C16">
-        <v>0.1707073437853899</v>
+        <v>-0.3507693095787401</v>
       </c>
       <c r="D16">
-        <v>-0.7300685010942396</v>
+        <v>-0.5686791871184989</v>
       </c>
       <c r="E16">
-        <v>0.3403070558594132</v>
+        <v>0.9950986165176716</v>
       </c>
       <c r="F16">
-        <v>-0.2367528581570486</v>
+        <v>-0.3408850895643921</v>
       </c>
       <c r="G16">
-        <v>-0.4423588422500648</v>
+        <v>1.099729326965736</v>
       </c>
       <c r="H16">
-        <v>0.5367861394710324</v>
+        <v>-0.0007147872950865053</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -915,25 +867,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.04951982135029001</v>
+        <v>-0.4749660705519546</v>
       </c>
       <c r="C17">
-        <v>-0.8512560235293395</v>
+        <v>1.088811733084216</v>
       </c>
       <c r="D17">
-        <v>0.2191195334243133</v>
+        <v>-0.2471719729978479</v>
       </c>
       <c r="E17">
-        <v>-0.3579403805921485</v>
+        <v>1.19344244353228</v>
       </c>
       <c r="F17">
-        <v>-0.5635463646851647</v>
+        <v>0.09299832927145768</v>
       </c>
       <c r="G17">
-        <v>0.4155986170359325</v>
+        <v>-0.1172760688982122</v>
       </c>
       <c r="H17">
-        <v>-0.3207477263014294</v>
+        <v>0.4812681344855182</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -941,440 +893,24 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.8219827924900042</v>
+        <v>1.097015279354651</v>
       </c>
       <c r="C18">
-        <v>0.2483927644636486</v>
+        <v>-0.2389684267274125</v>
       </c>
       <c r="D18">
-        <v>-0.3286671495528132</v>
+        <v>1.201645989802716</v>
       </c>
       <c r="E18">
-        <v>-0.5342731336458294</v>
+        <v>0.1012018755418931</v>
       </c>
       <c r="F18">
-        <v>0.4448718480752678</v>
+        <v>-0.1090725226277768</v>
       </c>
       <c r="G18">
-        <v>-0.2914744952620941</v>
+        <v>0.4894716807559536</v>
       </c>
       <c r="H18">
-        <v>-0.3094443099162875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2874422675287736</v>
-      </c>
-      <c r="C19">
-        <v>-0.2896176464876882</v>
-      </c>
-      <c r="D19">
-        <v>-0.4952236305807045</v>
-      </c>
-      <c r="E19">
-        <v>0.4839213511403928</v>
-      </c>
-      <c r="F19">
-        <v>-0.2524249921969692</v>
-      </c>
-      <c r="G19">
-        <v>-0.2703948068511625</v>
-      </c>
-      <c r="H19">
-        <v>-0.2469899413108257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>-0.3811441197962005</v>
-      </c>
-      <c r="C20">
-        <v>-0.5867501038892167</v>
-      </c>
-      <c r="D20">
-        <v>0.3923948778318805</v>
-      </c>
-      <c r="E20">
-        <v>-0.3439514655054814</v>
-      </c>
-      <c r="F20">
-        <v>-0.3619212801596748</v>
-      </c>
-      <c r="G20">
-        <v>-0.338516414619338</v>
-      </c>
-      <c r="H20">
-        <v>-0.7036908503860788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>-0.5938852086106097</v>
-      </c>
-      <c r="C21">
-        <v>0.3852597731104875</v>
-      </c>
-      <c r="D21">
-        <v>-0.3510865702268745</v>
-      </c>
-      <c r="E21">
-        <v>-0.3690563848810678</v>
-      </c>
-      <c r="F21">
-        <v>-0.345651519340731</v>
-      </c>
-      <c r="G21">
-        <v>-0.7108259551074718</v>
-      </c>
-      <c r="H21">
-        <v>-0.0550064379365196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.4436823467547108</v>
-      </c>
-      <c r="C22">
-        <v>-0.2926639965826512</v>
-      </c>
-      <c r="D22">
-        <v>-0.3106338112368445</v>
-      </c>
-      <c r="E22">
-        <v>-0.2872289456965077</v>
-      </c>
-      <c r="F22">
-        <v>-0.6524033814632485</v>
-      </c>
-      <c r="G22">
-        <v>0.003416135707703688</v>
-      </c>
-      <c r="H22">
-        <v>-0.12745474523372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>-0.2740769919852016</v>
-      </c>
-      <c r="C23">
-        <v>-0.292046806639395</v>
-      </c>
-      <c r="D23">
-        <v>-0.2686419410990581</v>
-      </c>
-      <c r="E23">
-        <v>-0.6338163768657989</v>
-      </c>
-      <c r="F23">
-        <v>0.02200314030515318</v>
-      </c>
-      <c r="G23">
-        <v>-0.1088677406362705</v>
-      </c>
-      <c r="H23">
-        <v>-0.2183855395603924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>-0.1790853597680137</v>
-      </c>
-      <c r="C24">
-        <v>-0.1556804942276769</v>
-      </c>
-      <c r="D24">
-        <v>-0.5208549299944176</v>
-      </c>
-      <c r="E24">
-        <v>0.1349645871765345</v>
-      </c>
-      <c r="F24">
-        <v>0.004093706235110794</v>
-      </c>
-      <c r="G24">
-        <v>-0.1054240926890111</v>
-      </c>
-      <c r="H24">
-        <v>-0.9352018797565644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>-0.09712588908289738</v>
-      </c>
-      <c r="C25">
-        <v>-0.4623003248496382</v>
-      </c>
-      <c r="D25">
-        <v>0.193519192321314</v>
-      </c>
-      <c r="E25">
-        <v>0.0626483113798903</v>
-      </c>
-      <c r="F25">
-        <v>-0.04686948754423159</v>
-      </c>
-      <c r="G25">
-        <v>-0.8766472746117848</v>
-      </c>
-      <c r="H25">
-        <v>-0.2961214854431372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>-0.5289795641056161</v>
-      </c>
-      <c r="C26">
-        <v>0.1268399530653361</v>
-      </c>
-      <c r="D26">
-        <v>-0.004030927876087609</v>
-      </c>
-      <c r="E26">
-        <v>-0.1135487268002095</v>
-      </c>
-      <c r="F26">
-        <v>-0.9433265138677628</v>
-      </c>
-      <c r="G26">
-        <v>-0.3628007246991151</v>
-      </c>
-      <c r="H26">
-        <v>-0.446186826128895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.1560540901775642</v>
-      </c>
-      <c r="C27">
-        <v>0.02518320923614054</v>
-      </c>
-      <c r="D27">
-        <v>-0.08433458968798135</v>
-      </c>
-      <c r="E27">
-        <v>-0.9141123767555346</v>
-      </c>
-      <c r="F27">
-        <v>-0.3335865875868869</v>
-      </c>
-      <c r="G27">
-        <v>-0.4169726890166669</v>
-      </c>
-      <c r="H27">
-        <v>-0.6348825665564255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.04382628996709842</v>
-      </c>
-      <c r="C28">
-        <v>-0.06569150895702347</v>
-      </c>
-      <c r="D28">
-        <v>-0.8954692960245767</v>
-      </c>
-      <c r="E28">
-        <v>-0.314943506855929</v>
-      </c>
-      <c r="F28">
-        <v>-0.398329608285709</v>
-      </c>
-      <c r="G28">
-        <v>-0.6162394858254676</v>
-      </c>
-      <c r="H28">
-        <v>0.9475383178107026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>-0.106237102096024</v>
-      </c>
-      <c r="C29">
-        <v>-0.9360148891635773</v>
-      </c>
-      <c r="D29">
-        <v>-0.3554890999949296</v>
-      </c>
-      <c r="E29">
-        <v>-0.4388752014247095</v>
-      </c>
-      <c r="F29">
-        <v>-0.6567850789644682</v>
-      </c>
-      <c r="G29">
-        <v>0.9069927246717022</v>
-      </c>
-      <c r="H29">
-        <v>-0.4289909814103615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>-0.8820377627523091</v>
-      </c>
-      <c r="C30">
-        <v>-0.3015119735836613</v>
-      </c>
-      <c r="D30">
-        <v>-0.3848980750134413</v>
-      </c>
-      <c r="E30">
-        <v>-0.6028079525532</v>
-      </c>
-      <c r="F30">
-        <v>0.9609698510829704</v>
-      </c>
-      <c r="G30">
-        <v>-0.3750138549990932</v>
-      </c>
-      <c r="H30">
-        <v>1.065600561531035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>-0.2673832081489602</v>
-      </c>
-      <c r="C31">
-        <v>-0.3507693095787401</v>
-      </c>
-      <c r="D31">
-        <v>-0.5686791871184989</v>
-      </c>
-      <c r="E31">
-        <v>0.9950986165176716</v>
-      </c>
-      <c r="F31">
-        <v>-0.3408850895643921</v>
-      </c>
-      <c r="G31">
-        <v>1.099729326965736</v>
-      </c>
-      <c r="H31">
-        <v>-0.0007147872950865053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>-0.3480007254186096</v>
-      </c>
-      <c r="C32">
-        <v>-0.5659106029583683</v>
-      </c>
-      <c r="D32">
-        <v>0.9978672006778021</v>
-      </c>
-      <c r="E32">
-        <v>-0.3381165054042615</v>
-      </c>
-      <c r="F32">
-        <v>1.102497911125867</v>
-      </c>
-      <c r="G32">
-        <v>0.002053796865044033</v>
-      </c>
-      <c r="H32">
-        <v>-0.2082206013046258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>-0.4749660705519546</v>
-      </c>
-      <c r="C33">
-        <v>1.088811733084216</v>
-      </c>
-      <c r="D33">
-        <v>-0.2471719729978479</v>
-      </c>
-      <c r="E33">
-        <v>1.19344244353228</v>
-      </c>
-      <c r="F33">
-        <v>0.09299832927145768</v>
-      </c>
-      <c r="G33">
-        <v>-0.1172760688982122</v>
-      </c>
-      <c r="H33">
-        <v>0.4812681344855182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>1.097015279354651</v>
-      </c>
-      <c r="C34">
-        <v>-0.2389684267274125</v>
-      </c>
-      <c r="D34">
-        <v>1.201645989802716</v>
-      </c>
-      <c r="E34">
-        <v>0.1012018755418931</v>
-      </c>
-      <c r="F34">
-        <v>-0.1090725226277768</v>
-      </c>
-      <c r="G34">
-        <v>0.4894716807559536</v>
-      </c>
-      <c r="H34">
         <v>0.1638030399807392</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AVERAGE_10_6_qoq_errors_latest_eval_20101_20181.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AVERAGE_10_6_qoq_errors_latest_eval_20101_20181.xlsx
@@ -517,12 +517,6 @@
       <c r="F3">
         <v>-0.159566049999028</v>
       </c>
-      <c r="G3">
-        <v>-0.3854928109118805</v>
-      </c>
-      <c r="H3">
-        <v>-0.2776770955153309</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -569,12 +563,6 @@
       <c r="F5">
         <v>1.070453337133546</v>
       </c>
-      <c r="G5">
-        <v>1.328975279056995</v>
-      </c>
-      <c r="H5">
-        <v>-0.3950073059213186</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -621,12 +609,6 @@
       <c r="F7">
         <v>0.4938971983238294</v>
       </c>
-      <c r="G7">
-        <v>-0.4068786465558001</v>
-      </c>
-      <c r="H7">
-        <v>0.6634969103978527</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -673,12 +655,6 @@
       <c r="F9">
         <v>-0.5635463646851647</v>
       </c>
-      <c r="G9">
-        <v>0.4155986170359325</v>
-      </c>
-      <c r="H9">
-        <v>-0.3207477263014294</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -725,12 +701,6 @@
       <c r="F11">
         <v>-0.345651519340731</v>
       </c>
-      <c r="G11">
-        <v>-0.7108259551074718</v>
-      </c>
-      <c r="H11">
-        <v>-0.0550064379365196</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -777,12 +747,6 @@
       <c r="F13">
         <v>-0.04686948754423159</v>
       </c>
-      <c r="G13">
-        <v>-0.8766472746117848</v>
-      </c>
-      <c r="H13">
-        <v>-0.2961214854431372</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -829,12 +793,6 @@
       <c r="F15">
         <v>-0.6567850789644682</v>
       </c>
-      <c r="G15">
-        <v>0.9069927246717022</v>
-      </c>
-      <c r="H15">
-        <v>-0.4289909814103615</v>
-      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -880,12 +838,6 @@
       </c>
       <c r="F17">
         <v>0.09299832927145768</v>
-      </c>
-      <c r="G17">
-        <v>-0.1172760688982122</v>
-      </c>
-      <c r="H17">
-        <v>0.4812681344855182</v>
       </c>
     </row>
     <row r="18" spans="1:8">
